--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_12_26.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_12_26.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1671805.940235493</v>
+        <v>1669429.313288127</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12383593.4843585</v>
+        <v>12383593.48435851</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283188</v>
+        <v>416855.105228319</v>
       </c>
     </row>
     <row r="9">
@@ -659,25 +659,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>251.8617597136137</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>11.54770277295399</v>
+        <v>347.6198623647252</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,25 +707,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -814,19 +814,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -835,7 +835,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>79.41653965146556</v>
+        <v>22.68456176090999</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -877,13 +877,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,28 +893,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>286.5888679426056</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>11.54770277295399</v>
+        <v>133.3394089496214</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,7 +944,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -953,7 +953,7 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -962,7 +962,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -993,7 +993,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>20.22295923705012</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1066,10 +1066,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>50.98074812542837</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>69.63957399764126</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1099,7 +1099,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1114,7 +1114,7 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -1130,13 +1130,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -1145,10 +1145,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>411.547702772954</v>
+        <v>11.54770277295399</v>
       </c>
       <c r="H8" t="n">
-        <v>238.9031699608851</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1190,10 +1190,10 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>213.2066220932636</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -1227,10 +1227,10 @@
         <v>135.3343964518635</v>
       </c>
       <c r="H9" t="n">
-        <v>92.83156789269627</v>
+        <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705016</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1303,7 +1303,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>50.9807481254277</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1345,7 +1345,7 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>50.98074812542875</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1421,7 +1421,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576155</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
         <v>250.9057009881286</v>
@@ -1430,7 +1430,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -1540,13 +1540,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>94.91529601901384</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1576,13 +1576,13 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>55.5207962406042</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1655,10 +1655,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
         <v>250.9057009881286</v>
@@ -1768,22 +1768,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>93.4044447618827</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1813,7 +1813,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>55.5207962406042</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
@@ -1847,7 +1847,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2068,7 +2068,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>161.3555494301526</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2135,7 +2135,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2236,19 +2236,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>122.6028762599951</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
@@ -2257,7 +2257,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,19 +2284,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>206.7582264966179</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2491,7 +2491,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2609,7 +2609,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2716,13 +2716,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>9.146142788179368</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
@@ -2731,7 +2731,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,22 +2758,22 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>174.7683347992595</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2852,7 +2852,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
@@ -2953,19 +2953,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>55.52079624060473</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,10 +2995,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
@@ -3013,7 +3013,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>168.480551467094</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3190,22 +3190,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>45.31583743121449</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428169</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3244,13 +3244,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -3281,7 +3281,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444123</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3430,16 +3430,16 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>49.48749137895512</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428169</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3481,7 +3481,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -3551,10 +3551,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U38" t="n">
         <v>250.9057009881286</v>
@@ -3566,7 +3566,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
         <v>386.2379386560536</v>
@@ -3664,7 +3664,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>147.6895341487369</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3676,10 +3676,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3715,10 +3715,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>105.321942911332</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3901,7 +3901,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3910,10 +3910,10 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>108.2950343703271</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4135,7 +4135,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4144,16 +4144,16 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>28.75188085812055</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4304,37 +4304,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>728.3028554854568</v>
+        <v>1588.713578732508</v>
       </c>
       <c r="C2" t="n">
-        <v>728.3028554854568</v>
+        <v>1219.751061792096</v>
       </c>
       <c r="D2" t="n">
-        <v>728.3028554854568</v>
+        <v>861.4853631853455</v>
       </c>
       <c r="E2" t="n">
-        <v>473.8970375929177</v>
+        <v>475.6971105871012</v>
       </c>
       <c r="F2" t="n">
-        <v>62.91113280331017</v>
+        <v>468.7516098378978</v>
       </c>
       <c r="G2" t="n">
-        <v>51.2467865680031</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="H2" t="n">
-        <v>51.2467865680031</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I2" t="n">
         <v>51.2467865680031</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362822</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816086</v>
+        <v>442.5171852816088</v>
       </c>
       <c r="L2" t="n">
-        <v>795.7553530872917</v>
+        <v>795.755353087292</v>
       </c>
       <c r="M2" t="n">
         <v>1220.470313923562</v>
@@ -4355,25 +4355,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="T2" t="n">
-        <v>2562.339328400155</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="U2" t="n">
-        <v>2562.339328400155</v>
+        <v>1975.313418796629</v>
       </c>
       <c r="V2" t="n">
-        <v>2231.276441056584</v>
+        <v>1975.313418796629</v>
       </c>
       <c r="W2" t="n">
-        <v>1878.50778578647</v>
+        <v>1975.313418796629</v>
       </c>
       <c r="X2" t="n">
-        <v>1505.04202752539</v>
+        <v>1975.313418796629</v>
       </c>
       <c r="Y2" t="n">
-        <v>1114.902695549579</v>
+        <v>1975.313418796629</v>
       </c>
     </row>
     <row r="3">
@@ -4383,22 +4383,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>931.3041410966384</v>
+        <v>931.3041410966389</v>
       </c>
       <c r="C3" t="n">
-        <v>756.8511118155114</v>
+        <v>756.8511118155119</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542601</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E3" t="n">
-        <v>448.6792471488045</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F3" t="n">
-        <v>302.1446891756896</v>
+        <v>302.14468917569</v>
       </c>
       <c r="G3" t="n">
-        <v>165.4432786182518</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H3" t="n">
         <v>71.67401812057901</v>
@@ -4407,28 +4407,28 @@
         <v>51.2467865680031</v>
       </c>
       <c r="J3" t="n">
-        <v>114.5432626034352</v>
+        <v>113.5972052500113</v>
       </c>
       <c r="K3" t="n">
-        <v>299.2648838844851</v>
+        <v>298.3188265310613</v>
       </c>
       <c r="L3" t="n">
-        <v>593.9684409159568</v>
+        <v>932.4978103100997</v>
       </c>
       <c r="M3" t="n">
-        <v>957.2304598751767</v>
+        <v>1456.147065963532</v>
       </c>
       <c r="N3" t="n">
-        <v>1344.515588472122</v>
+        <v>1843.432194560477</v>
       </c>
       <c r="O3" t="n">
-        <v>1676.586023648284</v>
+        <v>2175.502629736639</v>
       </c>
       <c r="P3" t="n">
-        <v>2239.046898434118</v>
+        <v>2422.685363568936</v>
       </c>
       <c r="Q3" t="n">
-        <v>2562.339328400155</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R3" t="n">
         <v>2562.339328400155</v>
@@ -4440,16 +4440,16 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U3" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V3" t="n">
         <v>1769.368633815395</v>
       </c>
       <c r="W3" t="n">
-        <v>1515.131277087193</v>
+        <v>1515.131277087194</v>
       </c>
       <c r="X3" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y3" t="n">
         <v>1099.519478116707</v>
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>131.4655134886754</v>
+        <v>1613.909557062601</v>
       </c>
       <c r="C4" t="n">
-        <v>131.4655134886754</v>
+        <v>1444.973374134694</v>
       </c>
       <c r="D4" t="n">
-        <v>131.4655134886754</v>
+        <v>1294.856734722359</v>
       </c>
       <c r="E4" t="n">
-        <v>131.4655134886754</v>
+        <v>1146.943641139966</v>
       </c>
       <c r="F4" t="n">
-        <v>131.4655134886754</v>
+        <v>1000.053693642055</v>
       </c>
       <c r="G4" t="n">
-        <v>131.4655134886754</v>
+        <v>1000.053693642055</v>
       </c>
       <c r="H4" t="n">
-        <v>131.4655134886754</v>
+        <v>1000.053693642055</v>
       </c>
       <c r="I4" t="n">
-        <v>51.2467865680031</v>
+        <v>977.1399948936613</v>
       </c>
       <c r="J4" t="n">
-        <v>76.71595955312196</v>
+        <v>1002.60916787878</v>
       </c>
       <c r="K4" t="n">
-        <v>248.4064713020475</v>
+        <v>1174.299679627706</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693233</v>
+        <v>1449.530858294981</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096585</v>
+        <v>1750.112669035317</v>
       </c>
       <c r="N4" t="n">
-        <v>1123.088724245823</v>
+        <v>2048.981932571481</v>
       </c>
       <c r="O4" t="n">
-        <v>1383.126566999034</v>
+        <v>2309.019775324693</v>
       </c>
       <c r="P4" t="n">
-        <v>1582.113182171023</v>
+        <v>2508.006390496681</v>
       </c>
       <c r="Q4" t="n">
-        <v>1636.446120074497</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R4" t="n">
-        <v>1636.446120074497</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S4" t="n">
-        <v>1636.446120074497</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T4" t="n">
-        <v>1413.467639269232</v>
+        <v>2339.36084759489</v>
       </c>
       <c r="U4" t="n">
-        <v>1124.34930177307</v>
+        <v>2050.242510098728</v>
       </c>
       <c r="V4" t="n">
-        <v>869.6648135671834</v>
+        <v>1795.558021892841</v>
       </c>
       <c r="W4" t="n">
-        <v>580.2476435302228</v>
+        <v>1795.558021892841</v>
       </c>
       <c r="X4" t="n">
-        <v>352.2580926322055</v>
+        <v>1795.558021892841</v>
       </c>
       <c r="Y4" t="n">
-        <v>131.4655134886754</v>
+        <v>1795.558021892841</v>
       </c>
     </row>
     <row r="5">
@@ -4541,40 +4541,40 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>728.3028554854563</v>
+        <v>1711.405707395431</v>
       </c>
       <c r="C5" t="n">
-        <v>359.3403385450446</v>
+        <v>1711.405707395431</v>
       </c>
       <c r="D5" t="n">
-        <v>359.3403385450446</v>
+        <v>1353.14000878868</v>
       </c>
       <c r="E5" t="n">
-        <v>69.85663355251363</v>
+        <v>967.3517561904362</v>
       </c>
       <c r="F5" t="n">
-        <v>62.91113280331015</v>
+        <v>556.3658514008287</v>
       </c>
       <c r="G5" t="n">
-        <v>51.24678656800309</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H5" t="n">
-        <v>51.24678656800309</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I5" t="n">
-        <v>51.24678656800309</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362819</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816083</v>
+        <v>442.5171852816086</v>
       </c>
       <c r="L5" t="n">
-        <v>795.755353087291</v>
+        <v>795.7553530872917</v>
       </c>
       <c r="M5" t="n">
-        <v>1220.470313923561</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N5" t="n">
         <v>1656.671415230817</v>
@@ -4583,34 +4583,34 @@
         <v>2055.22848474084</v>
       </c>
       <c r="P5" t="n">
-        <v>2360.886721764996</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q5" t="n">
-        <v>2542.250581723849</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R5" t="n">
-        <v>2562.339328400154</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S5" t="n">
-        <v>2562.339328400154</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="T5" t="n">
-        <v>2562.339328400154</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="U5" t="n">
-        <v>2562.339328400154</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="V5" t="n">
-        <v>2231.276441056584</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="W5" t="n">
-        <v>1878.50778578647</v>
+        <v>2084.871465656511</v>
       </c>
       <c r="X5" t="n">
-        <v>1505.04202752539</v>
+        <v>1711.405707395431</v>
       </c>
       <c r="Y5" t="n">
-        <v>1114.902695549578</v>
+        <v>1711.405707395431</v>
       </c>
     </row>
     <row r="6">
@@ -4620,43 +4620,43 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>931.3041410966385</v>
+        <v>931.3041410966388</v>
       </c>
       <c r="C6" t="n">
-        <v>756.8511118155116</v>
+        <v>756.8511118155118</v>
       </c>
       <c r="D6" t="n">
-        <v>607.9167021542603</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E6" t="n">
-        <v>448.6792471488048</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F6" t="n">
-        <v>302.1446891756898</v>
+        <v>302.1446891756899</v>
       </c>
       <c r="G6" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057896</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I6" t="n">
-        <v>51.24678656800309</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J6" t="n">
         <v>238.4273302370161</v>
       </c>
       <c r="K6" t="n">
-        <v>614.5430248380223</v>
+        <v>614.5430248380227</v>
       </c>
       <c r="L6" t="n">
-        <v>909.2465818694941</v>
+        <v>909.2465818694943</v>
       </c>
       <c r="M6" t="n">
         <v>1272.508600828714</v>
       </c>
       <c r="N6" t="n">
-        <v>1659.793729425659</v>
+        <v>1659.79372942566</v>
       </c>
       <c r="O6" t="n">
         <v>1991.864164601821</v>
@@ -4677,7 +4677,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U6" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V6" t="n">
         <v>1769.368633815395</v>
@@ -4686,7 +4686,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X6" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y6" t="n">
         <v>1099.519478116707</v>
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>716.5983551657496</v>
+        <v>903.4321187182921</v>
       </c>
       <c r="C7" t="n">
-        <v>547.6621722378427</v>
+        <v>734.4959357903853</v>
       </c>
       <c r="D7" t="n">
-        <v>397.5455328255069</v>
+        <v>584.3792963780495</v>
       </c>
       <c r="E7" t="n">
-        <v>249.6324392431138</v>
+        <v>436.4662027956564</v>
       </c>
       <c r="F7" t="n">
-        <v>102.7424917452035</v>
+        <v>289.576255297746</v>
       </c>
       <c r="G7" t="n">
-        <v>51.24678656800309</v>
+        <v>121.5897906060246</v>
       </c>
       <c r="H7" t="n">
-        <v>51.24678656800309</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I7" t="n">
-        <v>51.24678656800309</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312198</v>
+        <v>76.71595955312196</v>
       </c>
       <c r="K7" t="n">
-        <v>248.4064713020476</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L7" t="n">
-        <v>523.6376499693235</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M7" t="n">
-        <v>824.2194607096588</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N7" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O7" t="n">
-        <v>1383.126566999035</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P7" t="n">
-        <v>1582.113182171024</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q7" t="n">
         <v>1636.446120074497</v>
       </c>
       <c r="R7" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="S7" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="T7" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="U7" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="V7" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="W7" t="n">
-        <v>1347.028950037537</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="X7" t="n">
-        <v>1119.039399139519</v>
+        <v>1305.873162692062</v>
       </c>
       <c r="Y7" t="n">
-        <v>898.2468199959893</v>
+        <v>1085.080583548532</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1505.042027525389</v>
+        <v>1586.913505738324</v>
       </c>
       <c r="C8" t="n">
-        <v>1505.042027525389</v>
+        <v>1217.950988797912</v>
       </c>
       <c r="D8" t="n">
-        <v>1505.042027525389</v>
+        <v>859.685290191162</v>
       </c>
       <c r="E8" t="n">
-        <v>1119.253774927145</v>
+        <v>473.8970375929177</v>
       </c>
       <c r="F8" t="n">
-        <v>708.2678701375376</v>
+        <v>62.91113280331018</v>
       </c>
       <c r="G8" t="n">
-        <v>292.5631198618264</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="H8" t="n">
-        <v>51.24678656800308</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="I8" t="n">
-        <v>51.24678656800308</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362813</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816077</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L8" t="n">
-        <v>795.7553530872908</v>
+        <v>795.7553530872916</v>
       </c>
       <c r="M8" t="n">
-        <v>1220.470313923561</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N8" t="n">
-        <v>1656.671415230816</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O8" t="n">
-        <v>2055.228484740838</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P8" t="n">
-        <v>2360.886721764995</v>
+        <v>2360.886721764998</v>
       </c>
       <c r="Q8" t="n">
-        <v>2542.250581723849</v>
+        <v>2542.250581723851</v>
       </c>
       <c r="R8" t="n">
-        <v>2562.339328400154</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S8" t="n">
-        <v>2562.339328400154</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="T8" t="n">
-        <v>2562.339328400154</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="U8" t="n">
-        <v>2562.339328400154</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="V8" t="n">
-        <v>2231.276441056583</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="W8" t="n">
-        <v>1878.507785786469</v>
+        <v>2346.979104063526</v>
       </c>
       <c r="X8" t="n">
-        <v>1505.042027525389</v>
+        <v>1973.513345802446</v>
       </c>
       <c r="Y8" t="n">
-        <v>1505.042027525389</v>
+        <v>1973.513345802446</v>
       </c>
     </row>
     <row r="9">
@@ -4857,46 +4857,46 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3041410966388</v>
+        <v>931.3041410966385</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8511118155118</v>
+        <v>756.8511118155116</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542603</v>
       </c>
       <c r="E9" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488048</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1446891756899</v>
+        <v>302.1446891756898</v>
       </c>
       <c r="G9" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057899</v>
       </c>
       <c r="I9" t="n">
-        <v>51.24678656800308</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J9" t="n">
-        <v>238.427330237016</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K9" t="n">
-        <v>614.5430248380239</v>
+        <v>614.5430248380219</v>
       </c>
       <c r="L9" t="n">
-        <v>909.2465818694955</v>
+        <v>909.2465818694938</v>
       </c>
       <c r="M9" t="n">
-        <v>1272.508600828715</v>
+        <v>1272.508600828714</v>
       </c>
       <c r="N9" t="n">
-        <v>1659.79372942566</v>
+        <v>1659.793729425659</v>
       </c>
       <c r="O9" t="n">
-        <v>1991.864164601822</v>
+        <v>1991.864164601821</v>
       </c>
       <c r="P9" t="n">
         <v>2239.046898434118</v>
@@ -4914,7 +4914,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U9" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V9" t="n">
         <v>1769.368633815395</v>
@@ -4923,7 +4923,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X9" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y9" t="n">
         <v>1099.519478116707</v>
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>716.5983551657489</v>
+        <v>665.1026499885492</v>
       </c>
       <c r="C10" t="n">
-        <v>547.662172237842</v>
+        <v>496.1664670606423</v>
       </c>
       <c r="D10" t="n">
-        <v>397.5455328255063</v>
+        <v>346.0498276483066</v>
       </c>
       <c r="E10" t="n">
-        <v>249.6324392431131</v>
+        <v>198.1367340659135</v>
       </c>
       <c r="F10" t="n">
-        <v>102.7424917452028</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="G10" t="n">
-        <v>51.24678656800308</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="H10" t="n">
-        <v>51.24678656800308</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="I10" t="n">
-        <v>51.24678656800308</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312191</v>
+        <v>76.71595955312202</v>
       </c>
       <c r="K10" t="n">
-        <v>248.4064713020474</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L10" t="n">
-        <v>523.6376499693231</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M10" t="n">
-        <v>824.2194607096583</v>
+        <v>824.219460709659</v>
       </c>
       <c r="N10" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O10" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P10" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q10" t="n">
-        <v>1636.446120074497</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="R10" t="n">
-        <v>1636.446120074497</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="S10" t="n">
-        <v>1636.446120074497</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="T10" t="n">
-        <v>1636.446120074497</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="U10" t="n">
-        <v>1636.446120074497</v>
+        <v>1584.950414897297</v>
       </c>
       <c r="V10" t="n">
-        <v>1636.446120074497</v>
+        <v>1584.950414897297</v>
       </c>
       <c r="W10" t="n">
-        <v>1347.028950037536</v>
+        <v>1295.533244860336</v>
       </c>
       <c r="X10" t="n">
-        <v>1119.039399139519</v>
+        <v>1067.543693962319</v>
       </c>
       <c r="Y10" t="n">
-        <v>898.2468199959886</v>
+        <v>846.7511148187889</v>
       </c>
     </row>
     <row r="11">
@@ -5033,40 +5033,40 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
         <v>4405.252601474784</v>
@@ -5075,7 +5075,7 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
         <v>3467.980956852889</v>
@@ -5112,31 +5112,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797186</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>93.81666304797186</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>119.290296770379</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>716.6687843969308</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N12" t="n">
-        <v>1344.266747951538</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190825</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5173,28 +5173,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>707.672526468518</v>
+        <v>1052.829365488567</v>
       </c>
       <c r="C13" t="n">
-        <v>538.7363435406111</v>
+        <v>883.8931825606599</v>
       </c>
       <c r="D13" t="n">
-        <v>388.6197041282753</v>
+        <v>733.7765431483241</v>
       </c>
       <c r="E13" t="n">
-        <v>240.7066105458822</v>
+        <v>585.863449565931</v>
       </c>
       <c r="F13" t="n">
-        <v>93.81666304797186</v>
+        <v>438.9735020680206</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797186</v>
+        <v>271.7774027829005</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782957</v>
@@ -5224,25 +5224,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2390.881471216014</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T13" t="n">
-        <v>2171.280006238955</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U13" t="n">
-        <v>1882.204779583153</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="V13" t="n">
-        <v>1627.520291377266</v>
+        <v>1972.677130397314</v>
       </c>
       <c r="W13" t="n">
-        <v>1338.103121340305</v>
+        <v>1683.259960360354</v>
       </c>
       <c r="X13" t="n">
-        <v>1110.113570442288</v>
+        <v>1455.270409462336</v>
       </c>
       <c r="Y13" t="n">
-        <v>889.3209912987577</v>
+        <v>1234.477830318806</v>
       </c>
     </row>
     <row r="14">
@@ -5273,13 +5273,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5294,7 +5294,7 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
         <v>4562.265728852255</v>
@@ -5355,25 +5355,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L15" t="n">
-        <v>589.1422692637306</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M15" t="n">
-        <v>1186.520756890282</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N15" t="n">
-        <v>1814.118720444889</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O15" t="n">
-        <v>2366.028450684176</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>580.8993044876688</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C16" t="n">
-        <v>411.9631215597619</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D16" t="n">
-        <v>411.9631215597619</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E16" t="n">
-        <v>411.9631215597619</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F16" t="n">
-        <v>411.9631215597619</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
@@ -5461,25 +5461,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>2264.108249235165</v>
+        <v>2390.881471216014</v>
       </c>
       <c r="T16" t="n">
-        <v>2044.506784258106</v>
+        <v>2171.280006238955</v>
       </c>
       <c r="U16" t="n">
-        <v>1755.431557602304</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V16" t="n">
-        <v>1500.747069396417</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W16" t="n">
-        <v>1211.329899359456</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X16" t="n">
-        <v>983.3403484614387</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y16" t="n">
-        <v>762.5477693179085</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="17">
@@ -5504,28 +5504,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
@@ -5592,19 +5592,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>923.0670414349511</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M18" t="n">
-        <v>1520.445529061503</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N18" t="n">
-        <v>2148.04349261611</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O18" t="n">
         <v>2553.061288060775</v>
@@ -5695,25 +5695,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y19" t="n">
         <v>753.3092412490405</v>
@@ -5744,16 +5744,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5786,13 +5786,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5826,22 +5826,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N21" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O21" t="n">
         <v>2553.061288060775</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>571.6607764188008</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C22" t="n">
-        <v>402.7245934908939</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D22" t="n">
-        <v>402.7245934908939</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E22" t="n">
-        <v>402.7245934908939</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5932,28 +5932,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138411</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703109</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="23">
@@ -5963,19 +5963,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362683</v>
@@ -5984,13 +5984,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6002,7 +6002,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6020,19 +6020,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="24">
@@ -6066,28 +6066,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>680.0291294438176</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N24" t="n">
-        <v>1307.627092998424</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F25" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G25" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797187</v>
@@ -6169,28 +6169,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="26">
@@ -6221,25 +6221,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6260,13 +6260,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6303,28 +6303,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>93.81666304797187</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M27" t="n">
-        <v>691.1951506745238</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N27" t="n">
-        <v>1307.627092998424</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>580.8993044876688</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C28" t="n">
-        <v>411.9631215597619</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D28" t="n">
-        <v>411.9631215597619</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E28" t="n">
-        <v>402.7245934908939</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6406,28 +6406,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2264.108249235165</v>
+        <v>2203.383708318259</v>
       </c>
       <c r="T28" t="n">
-        <v>2044.506784258106</v>
+        <v>1983.7822433412</v>
       </c>
       <c r="U28" t="n">
-        <v>1755.431557602304</v>
+        <v>1983.7822433412</v>
       </c>
       <c r="V28" t="n">
-        <v>1500.747069396417</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="W28" t="n">
-        <v>1211.329899359456</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X28" t="n">
-        <v>983.3403484614387</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y28" t="n">
-        <v>762.5477693179085</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="29">
@@ -6449,34 +6449,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6500,10 +6500,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6540,28 +6540,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>680.0291294438171</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N30" t="n">
-        <v>1307.627092998424</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>763.7541388327652</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C31" t="n">
-        <v>594.8179559048583</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D31" t="n">
-        <v>444.7013164925226</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E31" t="n">
-        <v>296.7882229101294</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F31" t="n">
-        <v>149.8982754122191</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G31" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
         <v>93.81666304797187</v>
@@ -6619,52 +6619,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279801</v>
       </c>
       <c r="P31" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S31" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487566</v>
       </c>
       <c r="T31" t="n">
-        <v>2227.361618603202</v>
+        <v>1977.461080510507</v>
       </c>
       <c r="U31" t="n">
-        <v>1938.2863919474</v>
+        <v>1688.385853854705</v>
       </c>
       <c r="V31" t="n">
-        <v>1683.601903741513</v>
+        <v>1433.701365648818</v>
       </c>
       <c r="W31" t="n">
-        <v>1394.184733704552</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1166.195182806535</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y31" t="n">
-        <v>945.4026036630049</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="32">
@@ -6686,31 +6686,31 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168604</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
         <v>3640.422291068009</v>
@@ -6719,16 +6719,16 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U32" t="n">
         <v>4151.812499466572</v>
@@ -6771,34 +6771,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>245.2306927803938</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>245.2306927803938</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>680.0291294438171</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N33" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>996.5276398439761</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>827.5914569160692</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D34" t="n">
-        <v>677.4748175037334</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E34" t="n">
-        <v>631.7012443408905</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578601</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1688.385853854707</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1398.968683817746</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>1398.968683817746</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>1178.176104674216</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6911,34 +6911,34 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362672</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332386</v>
@@ -6953,34 +6953,34 @@
         <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="36">
@@ -7008,28 +7008,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>589.1422692637307</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>1186.520756890282</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N36" t="n">
-        <v>1814.118720444889</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O36" t="n">
-        <v>2366.028450684176</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
         <v>2553.061288060775</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>768.5380889459586</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>599.6019060180517</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>599.6019060180517</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E37" t="n">
-        <v>549.6145409888042</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1688.385853854707</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1398.968683817746</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>1170.979132919728</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>950.1865537761984</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7169,22 +7169,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
@@ -7208,10 +7208,10 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
         <v>3094.515198591809</v>
@@ -7251,22 +7251,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>589.1422692637307</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>1186.520756890282</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N39" t="n">
-        <v>1814.118720444889</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O39" t="n">
-        <v>2366.028450684176</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
         <v>2553.061288060775</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>802.9288273958739</v>
+        <v>662.1522880254209</v>
       </c>
       <c r="C40" t="n">
-        <v>633.992644467967</v>
+        <v>493.2161050975141</v>
       </c>
       <c r="D40" t="n">
-        <v>484.8112968429802</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="E40" t="n">
-        <v>484.8112968429802</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429802</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578601</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1977.461080510509</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1722.776592304622</v>
+        <v>1582.000052934169</v>
       </c>
       <c r="W40" t="n">
-        <v>1433.359422267661</v>
+        <v>1292.582882897208</v>
       </c>
       <c r="X40" t="n">
-        <v>1205.369871369644</v>
+        <v>1064.593331999191</v>
       </c>
       <c r="Y40" t="n">
-        <v>984.5772922261136</v>
+        <v>843.8007528556607</v>
       </c>
     </row>
     <row r="41">
@@ -7385,34 +7385,34 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192598</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111716</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7421,16 +7421,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
@@ -7442,19 +7442,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="42">
@@ -7488,22 +7488,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>589.1422692637307</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>1186.520756890282</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N42" t="n">
-        <v>1814.118720444889</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O42" t="n">
-        <v>2366.028450684176</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
         <v>2553.061288060775</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D43" t="n">
-        <v>344.9174178121648</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E43" t="n">
-        <v>344.9174178121648</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F43" t="n">
-        <v>344.9174178121648</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797187</v>
@@ -7567,52 +7567,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7637,19 +7637,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7725,25 +7725,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L45" t="n">
-        <v>119.2902967703784</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M45" t="n">
-        <v>716.6687843969303</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N45" t="n">
-        <v>1344.266747951537</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O45" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
         <v>2553.061288060775</v>
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>513.8536007400717</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D46" t="n">
-        <v>513.8536007400717</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E46" t="n">
-        <v>513.8536007400717</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F46" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -8055,16 +8055,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>0.9556134883069305</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>342.9044714621886</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>162.0073097921336</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -8073,13 +8073,13 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>20.93778120154991</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8295,7 +8295,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>193.3273467878346</v>
+        <v>193.327346787835</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8316,7 +8316,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
-        <v>20.93778120154988</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8532,7 +8532,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>193.3273467878365</v>
+        <v>193.3273467878341</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8553,7 +8553,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
-        <v>20.93778120154995</v>
+        <v>20.93778120154985</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -9161,7 +9161,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -9896,7 +9896,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-13</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10124,7 +10124,7 @@
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>-1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
@@ -10355,7 +10355,7 @@
         <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>-1.591615728102624e-12</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
@@ -11081,7 +11081,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>-5.400124791776761e-13</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -23309,7 +23309,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -23318,7 +23318,7 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -23428,13 +23428,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>45.37941682721005</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23464,13 +23464,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>125.5054897610404</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23656,22 +23656,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>72.11969353038614</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23701,7 +23701,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>125.5054897610404</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23735,7 +23735,7 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23956,7 +23956,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24023,7 +24023,7 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>2.557953848736361e-13</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -24124,19 +24124,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -24145,7 +24145,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,19 +24172,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>45.37941682721009</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24379,7 +24379,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24604,13 +24604,13 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>137.2878198583898</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24619,7 +24619,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,22 +24646,22 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>6.257951202385129</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24841,22 +24841,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>110.0033420516641</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,10 +24883,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24901,7 +24901,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>57.22910392194316</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25078,22 +25078,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>101.1181252153547</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25132,13 +25132,13 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25169,7 +25169,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -25318,19 +25318,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>96.94647126761404</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25369,7 +25369,7 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25454,7 +25454,7 @@
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -25552,7 +25552,7 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0.9259388694754307</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -25564,7 +25564,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -25603,10 +25603,10 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>146.815700412496</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25789,7 +25789,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -25798,13 +25798,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>57.22910392194174</v>
+        <v>65.54986409393069</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -26023,7 +26023,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -26032,16 +26032,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>116.6691671648107</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>917595.5874321448</v>
+        <v>917595.5874321447</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>895180.5872391546</v>
+        <v>895180.5872391547</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>895180.5872391547</v>
+        <v>895180.5872391546</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>895180.5872391546</v>
+        <v>895180.5872391547</v>
       </c>
     </row>
     <row r="9">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>895180.5872391547</v>
+        <v>895180.5872391546</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>895180.5872391547</v>
+        <v>895180.5872391546</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>895180.5872391547</v>
+        <v>895180.5872391546</v>
       </c>
     </row>
     <row r="14">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>895180.5872391547</v>
+        <v>895180.5872391546</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>533677.150411784</v>
+      </c>
+      <c r="C2" t="n">
+        <v>533677.1504117844</v>
+      </c>
+      <c r="D2" t="n">
         <v>533677.1504117843</v>
-      </c>
-      <c r="C2" t="n">
-        <v>533677.1504117842</v>
-      </c>
-      <c r="D2" t="n">
-        <v>533677.1504117842</v>
       </c>
       <c r="E2" t="n">
         <v>524645.2897985039</v>
       </c>
       <c r="F2" t="n">
-        <v>524645.289798504</v>
+        <v>524645.2897985039</v>
       </c>
       <c r="G2" t="n">
         <v>524645.289798504</v>
       </c>
       <c r="H2" t="n">
-        <v>524645.2897985039</v>
+        <v>524645.289798504</v>
       </c>
       <c r="I2" t="n">
+        <v>524645.2897985041</v>
+      </c>
+      <c r="J2" t="n">
         <v>524645.289798504</v>
       </c>
-      <c r="J2" t="n">
-        <v>524645.2897985041</v>
-      </c>
       <c r="K2" t="n">
-        <v>524645.2897985037</v>
+        <v>524645.289798504</v>
       </c>
       <c r="L2" t="n">
-        <v>524645.2897985041</v>
+        <v>524645.289798504</v>
       </c>
       <c r="M2" t="n">
         <v>524645.2897985039</v>
       </c>
       <c r="N2" t="n">
-        <v>524645.2897985037</v>
+        <v>524645.289798504</v>
       </c>
       <c r="O2" t="n">
+        <v>524645.289798504</v>
+      </c>
+      <c r="P2" t="n">
         <v>524645.2897985039</v>
-      </c>
-      <c r="P2" t="n">
-        <v>524645.2897985037</v>
       </c>
     </row>
     <row r="3">
@@ -26366,13 +26366,13 @@
         <v>1114751.783575919</v>
       </c>
       <c r="C3" t="n">
-        <v>2.07046923605958e-10</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>2.920889983215602e-10</v>
       </c>
       <c r="E3" t="n">
-        <v>507485.4416245462</v>
+        <v>507485.4416245456</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26390,7 +26390,7 @@
         <v>167605.1778099825</v>
       </c>
       <c r="K3" t="n">
-        <v>1.655303094594274e-10</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -26421,7 +26421,7 @@
         <v>134318.0002618638</v>
       </c>
       <c r="D4" t="n">
-        <v>134318.0002618638</v>
+        <v>134318.0002618637</v>
       </c>
       <c r="E4" t="n">
         <v>8117.312426731974</v>
@@ -26430,34 +26430,34 @@
         <v>8117.312426731974</v>
       </c>
       <c r="G4" t="n">
-        <v>8117.312426731988</v>
+        <v>8117.312426731974</v>
       </c>
       <c r="H4" t="n">
         <v>8117.312426731974</v>
       </c>
       <c r="I4" t="n">
+        <v>8117.312426731975</v>
+      </c>
+      <c r="J4" t="n">
+        <v>8117.312426731995</v>
+      </c>
+      <c r="K4" t="n">
         <v>8117.312426731974</v>
       </c>
-      <c r="J4" t="n">
+      <c r="L4" t="n">
         <v>8117.312426731974</v>
-      </c>
-      <c r="K4" t="n">
-        <v>8117.312426731942</v>
-      </c>
-      <c r="L4" t="n">
-        <v>8117.312426731936</v>
       </c>
       <c r="M4" t="n">
         <v>8117.312426731974</v>
       </c>
       <c r="N4" t="n">
-        <v>8117.312426731975</v>
+        <v>8117.312426731974</v>
       </c>
       <c r="O4" t="n">
-        <v>8117.312426731962</v>
+        <v>8117.312426731974</v>
       </c>
       <c r="P4" t="n">
-        <v>8117.312426731975</v>
+        <v>8117.312426731974</v>
       </c>
     </row>
     <row r="5">
@@ -26473,7 +26473,7 @@
         <v>92937.7724398447</v>
       </c>
       <c r="D5" t="n">
-        <v>92937.77243984469</v>
+        <v>92937.77243984473</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-808330.4058658436</v>
+        <v>-808330.4058658439</v>
       </c>
       <c r="C6" t="n">
+        <v>306421.3777100759</v>
+      </c>
+      <c r="D6" t="n">
         <v>306421.3777100755</v>
       </c>
-      <c r="D6" t="n">
-        <v>306421.3777100762</v>
-      </c>
       <c r="E6" t="n">
-        <v>-92079.99407668141</v>
+        <v>-92114.73200211654</v>
       </c>
       <c r="F6" t="n">
-        <v>415405.4475478649</v>
+        <v>415370.709622429</v>
       </c>
       <c r="G6" t="n">
-        <v>415405.4475478649</v>
+        <v>415370.7096224292</v>
       </c>
       <c r="H6" t="n">
-        <v>415405.4475478648</v>
+        <v>415370.7096224292</v>
       </c>
       <c r="I6" t="n">
-        <v>415405.4475478649</v>
+        <v>415370.7096224293</v>
       </c>
       <c r="J6" t="n">
-        <v>247800.2697378824</v>
+        <v>247765.5318124466</v>
       </c>
       <c r="K6" t="n">
-        <v>415405.4475478646</v>
+        <v>415370.7096224292</v>
       </c>
       <c r="L6" t="n">
-        <v>415405.447547865</v>
+        <v>415370.7096224292</v>
       </c>
       <c r="M6" t="n">
-        <v>282798.1538189381</v>
+        <v>282763.4158935024</v>
       </c>
       <c r="N6" t="n">
-        <v>415405.4475478646</v>
+        <v>415370.7096224292</v>
       </c>
       <c r="O6" t="n">
-        <v>415405.4475478648</v>
+        <v>415370.7096224292</v>
       </c>
       <c r="P6" t="n">
-        <v>415405.4475478646</v>
+        <v>415370.709622429</v>
       </c>
     </row>
   </sheetData>
@@ -26738,10 +26738,10 @@
         <v>934.0648921175391</v>
       </c>
       <c r="C3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="D3" t="n">
-        <v>934.0648921175388</v>
+        <v>934.0648921175394</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26790,10 +26790,10 @@
         <v>640.5848321000387</v>
       </c>
       <c r="C4" t="n">
-        <v>640.5848321000386</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="D4" t="n">
-        <v>640.5848321000385</v>
+        <v>640.584832100039</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26960,13 +26960,13 @@
         <v>934.0648921175391</v>
       </c>
       <c r="C3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="E3" t="n">
-        <v>433.910608224135</v>
+        <v>433.9106082241343</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26984,7 +26984,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>532.1234559996096</v>
+        <v>532.1234559996094</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996096</v>
+        <v>532.1234559996094</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996096</v>
+        <v>532.1234559996094</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,25 +27379,25 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>130.0686103586481</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>63.92784040822875</v>
       </c>
       <c r="H2" t="n">
         <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,25 +27427,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27534,19 +27534,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>166.3066000448042</v>
@@ -27555,7 +27555,7 @@
         <v>147.2515091551289</v>
       </c>
       <c r="I4" t="n">
-        <v>25.38005555243502</v>
+        <v>82.11203344299059</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27597,13 +27597,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27613,28 +27613,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>95.34150212965613</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>278.2082938233326</v>
       </c>
       <c r="H5" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247047</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,7 +27664,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>206.6581849802338</v>
@@ -27673,7 +27673,7 @@
         <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -27682,7 +27682,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27786,10 +27786,10 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>115.3258519193758</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2515091551288</v>
+        <v>77.61193515748761</v>
       </c>
       <c r="I7" t="n">
         <v>104.7965952039006</v>
@@ -27819,7 +27819,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>194.6624603617375</v>
@@ -27834,7 +27834,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27850,13 +27850,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27865,13 +27865,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>62.11538260152028</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247055</v>
+        <v>65.70991267247044</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27910,10 +27910,10 @@
         <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>136.0343466241494</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -28023,10 +28023,10 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>115.3258519193765</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551289</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I10" t="n">
         <v>104.7965952039006</v>
@@ -28056,7 +28056,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5575724195737</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
         <v>194.6624603617375</v>
@@ -28065,7 +28065,7 @@
         <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2271541212006</v>
+        <v>235.2464059957719</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -29329,7 +29329,7 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>2.557953848736361e-13</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -29572,7 +29572,7 @@
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -29703,7 +29703,7 @@
         <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>0</v>
+        <v>-9.426533627750662e-13</v>
       </c>
       <c r="O31" t="n">
         <v>0</v>
@@ -31276,46 +31276,46 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.75503474218106</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H5" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I5" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J5" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K5" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L5" t="n">
-        <v>592.5726450767381</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730005</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N5" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O5" t="n">
-        <v>632.6811099166596</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P5" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q5" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R5" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S5" t="n">
-        <v>85.56785418745099</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T5" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U5" t="n">
         <v>0.3004027793744847</v>
@@ -31358,10 +31358,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H6" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I6" t="n">
-        <v>69.17367361436496</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J6" t="n">
         <v>189.8178475575841</v>
@@ -31370,34 +31370,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L6" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M6" t="n">
-        <v>509.0653662040589</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N6" t="n">
-        <v>522.5388116762073</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O6" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P6" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q6" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R6" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S6" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T6" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31440,7 +31440,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>50.65387972335772</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J7" t="n">
         <v>119.0856174753787</v>
@@ -31455,10 +31455,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N7" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O7" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P7" t="n">
         <v>203.7180217169137</v>
@@ -31467,16 +31467,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R7" t="n">
-        <v>75.73581895759587</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S7" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T7" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.755034742181058</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H8" t="n">
-        <v>38.45624955336176</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I8" t="n">
-        <v>144.7659768979354</v>
+        <v>144.7659768979355</v>
       </c>
       <c r="J8" t="n">
-        <v>318.7038799491898</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K8" t="n">
-        <v>477.6545005857141</v>
+        <v>477.6545005857144</v>
       </c>
       <c r="L8" t="n">
-        <v>592.5726450767378</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730001</v>
+        <v>659.3512441730006</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342221</v>
+        <v>670.0202366342226</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166591</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P8" t="n">
-        <v>539.9786897190642</v>
+        <v>539.9786897190646</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.5015080147049</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R8" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745093</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T8" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3004027793744846</v>
+        <v>0.3004027793744848</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.009120711347159</v>
+        <v>2.009120711347161</v>
       </c>
       <c r="H9" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436492</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J9" t="n">
-        <v>189.817847557584</v>
+        <v>189.8178475575841</v>
       </c>
       <c r="K9" t="n">
-        <v>324.4289352178437</v>
+        <v>324.4289352178439</v>
       </c>
       <c r="L9" t="n">
-        <v>436.2347404177241</v>
+        <v>436.2347404177245</v>
       </c>
       <c r="M9" t="n">
-        <v>509.0653662040585</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N9" t="n">
-        <v>522.5388116762069</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O9" t="n">
-        <v>478.0209264405672</v>
+        <v>478.0209264405676</v>
       </c>
       <c r="P9" t="n">
-        <v>383.6539365378623</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R9" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S9" t="n">
-        <v>37.318536019979</v>
+        <v>37.31853601997903</v>
       </c>
       <c r="T9" t="n">
-        <v>8.098166376000169</v>
+        <v>8.098166376000174</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.684379313654578</v>
+        <v>1.684379313654579</v>
       </c>
       <c r="H10" t="n">
-        <v>14.97566335231071</v>
+        <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>50.65387972335768</v>
+        <v>50.65387972335773</v>
       </c>
       <c r="J10" t="n">
         <v>119.0856174753787</v>
       </c>
       <c r="K10" t="n">
-        <v>195.6942511682318</v>
+        <v>195.694251168232</v>
       </c>
       <c r="L10" t="n">
-        <v>250.4212663227906</v>
+        <v>250.4212663227908</v>
       </c>
       <c r="M10" t="n">
-        <v>264.0341136849626</v>
+        <v>264.0341136849628</v>
       </c>
       <c r="N10" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O10" t="n">
-        <v>238.0793597154671</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P10" t="n">
-        <v>203.7180217169136</v>
+        <v>203.7180217169137</v>
       </c>
       <c r="Q10" t="n">
         <v>141.0437987097484</v>
       </c>
       <c r="R10" t="n">
-        <v>75.73581895759582</v>
+        <v>75.73581895759588</v>
       </c>
       <c r="S10" t="n">
-        <v>29.35413767523477</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T10" t="n">
-        <v>7.196893431069558</v>
+        <v>7.196893431069563</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024981</v>
+        <v>0.09187523529024988</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31838,28 +31838,28 @@
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>164.2853229338208</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>595.327537312171</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
@@ -32075,16 +32075,16 @@
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>620.1193660647499</v>
       </c>
       <c r="N15" t="n">
         <v>765.2790490071785</v>
@@ -32093,10 +32093,10 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>322.8964653704906</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
@@ -32312,13 +32312,13 @@
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>339.3493584601592</v>
       </c>
       <c r="M18" t="n">
         <v>745.5466476862121</v>
@@ -32327,7 +32327,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>551.7051287319853</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32546,7 +32546,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
@@ -32561,10 +32561,10 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>465.7451325200306</v>
       </c>
       <c r="O21" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -32725,7 +32725,7 @@
         <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.820449923651</v>
       </c>
       <c r="Q23" t="n">
         <v>593.8732233669223</v>
@@ -32786,31 +32786,31 @@
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>465.7451325200306</v>
       </c>
       <c r="O24" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -33023,31 +33023,31 @@
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>339.3493584601592</v>
       </c>
       <c r="M27" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>754.0002396832328</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33184,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
         <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>734.267838362266</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>465.7451325200306</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33333,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33360,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,7 +33409,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33421,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669214</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,49 +33488,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>581.3243739860823</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33570,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33597,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,43 +33646,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,34 +33725,34 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
         <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P36" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
@@ -33761,13 +33761,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33807,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33834,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,7 +33883,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33895,31 +33895,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,34 +33962,34 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
         <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P39" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
@@ -33998,13 +33998,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34044,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34071,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,43 +34120,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,34 +34199,34 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
         <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P42" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
@@ -34235,13 +34235,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34281,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34308,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,7 +34357,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34369,31 +34369,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
         <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>164.2853229338202</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34518,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34545,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34775,16 +34775,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>63.93583437922432</v>
+        <v>62.98022089091739</v>
       </c>
       <c r="K3" t="n">
         <v>186.5874962434848</v>
       </c>
       <c r="L3" t="n">
-        <v>297.6803606378501</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="M3" t="n">
-        <v>366.9313322820404</v>
+        <v>528.938642074174</v>
       </c>
       <c r="N3" t="n">
         <v>391.1970995928739</v>
@@ -34793,13 +34793,13 @@
         <v>335.424681996123</v>
       </c>
       <c r="P3" t="n">
-        <v>568.1422977634694</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q3" t="n">
-        <v>326.5580100667036</v>
+        <v>116.4807223308545</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>24.58388860977091</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K5" t="n">
-        <v>257.5646495407338</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L5" t="n">
-        <v>356.8062301067509</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457278</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N5" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O5" t="n">
-        <v>402.5828984949728</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P5" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q5" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R5" t="n">
-        <v>20.29166330939907</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>189.0712562313263</v>
+        <v>189.0712562313262</v>
       </c>
       <c r="K6" t="n">
-        <v>379.9148430313194</v>
+        <v>379.9148430313198</v>
       </c>
       <c r="L6" t="n">
-        <v>297.6803606378502</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M6" t="n">
-        <v>366.9313322820406</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N6" t="n">
-        <v>391.197099592874</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O6" t="n">
-        <v>335.4246819961231</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P6" t="n">
-        <v>249.6795291235323</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q6" t="n">
-        <v>326.5580100667037</v>
+        <v>326.5580100667036</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870595</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K7" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L7" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M7" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N7" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O7" t="n">
-        <v>262.664487629507</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P7" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.88175545805406</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.6579754225035</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K8" t="n">
-        <v>257.5646495407335</v>
+        <v>257.5646495407339</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067505</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457273</v>
+        <v>429.0050109457279</v>
       </c>
       <c r="N8" t="n">
-        <v>440.6071730376312</v>
+        <v>440.6071730376316</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949724</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P8" t="n">
-        <v>308.7456939637946</v>
+        <v>308.7456939637951</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.1958181402555</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939893</v>
+        <v>20.2916633093991</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>189.0712562313262</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K9" t="n">
-        <v>379.9148430313211</v>
+        <v>379.914843031319</v>
       </c>
       <c r="L9" t="n">
-        <v>297.68036063785</v>
+        <v>297.6803606378503</v>
       </c>
       <c r="M9" t="n">
-        <v>366.9313322820402</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N9" t="n">
-        <v>391.1970995928737</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O9" t="n">
-        <v>335.4246819961228</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P9" t="n">
-        <v>249.6795291235321</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q9" t="n">
-        <v>326.5580100667036</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870588</v>
+        <v>25.72643735870597</v>
       </c>
       <c r="K10" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L10" t="n">
-        <v>278.0112915831068</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M10" t="n">
-        <v>303.6179906468032</v>
+        <v>303.6179906468034</v>
       </c>
       <c r="N10" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O10" t="n">
-        <v>262.6644876295068</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P10" t="n">
-        <v>200.9965809818071</v>
+        <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.88175545805397</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>25.73094315394658</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>463.9858252288377</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35723,16 +35723,16 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>477.9853321427316</v>
       </c>
       <c r="N15" t="n">
         <v>633.9373369238452</v>
@@ -35741,10 +35741,10 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>188.9220579561604</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35881,7 +35881,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
         <v>479.454324036777</v>
@@ -35960,13 +35960,13 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>200.7949786802851</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
@@ -35975,7 +35975,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>409.1088842875408</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36194,7 +36194,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36209,10 +36209,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="O21" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36373,7 +36373,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q23" t="n">
         <v>371.5675334924728</v>
@@ -36434,31 +36434,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="O24" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36616,7 +36616,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,31 +36671,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>200.7949786802851</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>622.6585275998996</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243148</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,31 +36908,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>592.1338044402477</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="O30" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,22 +36987,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899065</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902934</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924719</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,34 +37142,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>439.190340064064</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,22 +37224,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,25 +37382,25 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P36" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37461,22 +37461,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,25 +37619,25 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P39" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37698,22 +37698,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,25 +37856,25 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P42" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -37935,22 +37935,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,28 +38093,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>25.73094315394599</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,22 +38172,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
